--- a/SGSST/SG-SST AÑO 2023/18_Accidentalidad/Matriz acumulativa en accidentalidad.xlsx
+++ b/SGSST/SG-SST AÑO 2023/18_Accidentalidad/Matriz acumulativa en accidentalidad.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Accidentalidad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\18_Accidentalidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E366C1E-0FFA-41FC-9618-5AA396913344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCCACC-3398-46C9-8960-203032FE23EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="8" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>APELLIDO1</t>
   </si>
@@ -170,6 +170,15 @@
     <t>CANTIDAD</t>
   </si>
   <si>
+    <t>GIRALDO</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>EFREN</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -189,7 +198,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Se observa un incremento en el ultimo año en vista a la accidentalidad presentada por una misma persona dos veces. Se realizó jornada de capacitacion al personal sencibilizando en el autocuidado. En el año en curso 2023, hasta el momento no se ha presentado accidentalidad</t>
+      <t>Se observa un incremento en el año 2022 en vista que la accidentalidad presentada por una misma persona dos veces. Se realizó jornada de capacitacion al personal sensibilizando en el autocuidado. En el año en curso 2023, se presento un AT a finales de julio que fue investigado.</t>
     </r>
   </si>
   <si>
@@ -202,17 +211,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ANÁLISIS</t>
+      <t xml:space="preserve">ANÁLISIS: </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Se observa que el peligro con mas accidentalidad es el MECANICO. Se propone que para la vigencia 2023, se realizara capacitacion encaminada a este peligro. </t>
+      <t>Se observa que nuestro principal peligro es el Mecanico, por lo cual se elaborara un programa de riesgo prioritario para el Peligro MECANICO.</t>
     </r>
   </si>
 </sst>
@@ -299,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -484,44 +493,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -553,23 +569,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -577,38 +585,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,11 +618,132 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="136">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="medium">
@@ -684,6 +797,70 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="medium">
           <color indexed="64"/>
@@ -723,10 +900,679 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -891,6 +1737,120 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <right style="medium">
           <color indexed="64"/>
@@ -905,353 +1865,68 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1302,7 +1977,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>TENDENCIA ACCIDENTALIDAD EN LOS ULTIMOS 4 AÑOS</a:t>
+              <a:t>TENDENCIA ACCIDENTALIDAD EN LOS ULTIMOS 5 AÑOS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1359,7 +2034,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1376,7 +2053,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1417,6 +2094,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="38100" cap="rnd" cmpd="sng">
@@ -1433,9 +2164,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Hoja 1'!$A$15:$A$19</c:f>
+              <c:f>'Hoja 1'!$A$15:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
                 </c:pt>
@@ -1448,15 +2179,18 @@
                 <c:pt idx="3">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Hoja 1'!$B$15:$B$19</c:f>
+              <c:f>'Hoja 1'!$B$15:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1468,6 +2202,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,7 +2466,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>FRECUENCIA DE PELIGROS EN LOS ULTIMOS 4 AÑOS</a:t>
+              <a:t>FRECUENCIA DE PELIGROS EN LOS ULTIMOS 5 AÑOS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1813,6 +2550,112 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1853,7 +2696,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1902,13 +2747,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Locativo</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Mecanico</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Quimico</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Locativo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1920,10 +2765,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1933,7 +2778,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A5C-43BE-8B31-F9AD93A962AD}"/>
+              <c16:uniqueId val="{00000004-1E2C-4918-B04A-C7A33AD41DC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3248,8 +4093,8 @@
       <xdr:rowOff>320708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1085849</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3365,13 +4210,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="usuario" refreshedDate="45010.453572337959" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{F9F9F235-E9AA-4F70-B3D8-AD2AB777C798}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="usuario" refreshedDate="45150.579114120374" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{48F2DA29-CC91-44B6-AADF-1FCA8B2B2400}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A5:J11" sheet="Hoja 1"/>
+    <worksheetSource ref="A5:J12" sheet="Hoja 1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="NÚMERO DE CEDULA " numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1085337368" maxValue="1085337368"/>
     </cacheField>
     <cacheField name="APELLIDO1" numFmtId="0">
       <sharedItems/>
@@ -3383,10 +4228,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="NOMBRE2" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="FECHA_AT" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-08T00:00:00" maxDate="2022-07-08T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-08T00:00:00" maxDate="2023-08-01T00:00:00"/>
     </cacheField>
     <cacheField name="DIA" numFmtId="0">
       <sharedItems/>
@@ -3395,14 +4240,15 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="AÑO" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2019" maxValue="2022" count="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2019" maxValue="2023" count="5">
         <n v="2019"/>
         <n v="2020"/>
         <n v="2021"/>
         <n v="2022"/>
+        <n v="2023"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="RIESGO" numFmtId="0">
+    <cacheField name="PELIGRO" numFmtId="0">
       <sharedItems count="3">
         <s v="Mecanico"/>
         <s v="Locativo"/>
@@ -3419,7 +4265,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
   <r>
     <s v="94307200"/>
     <s v="CESPEDES"/>
@@ -3492,12 +4338,24 @@
     <x v="3"/>
     <x v="0"/>
   </r>
+  <r>
+    <n v="1085337368"/>
+    <s v="GIRALDO"/>
+    <s v="VILLEGAS"/>
+    <s v="EFREN"/>
+    <m/>
+    <d v="2023-07-31T00:00:00"/>
+    <s v="lunes"/>
+    <s v="julio"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{284523CF-51C5-4B02-AE04-85ED152D15DA}" name="TablaDinámica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="PELIGRO">
-  <location ref="G14:H18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E61EEB0-8075-44BF-97F4-BC9F1D57D3C6}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="AÑO">
+  <location ref="A14:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3507,29 +4365,25 @@
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="4">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="9"/>
+    <field x="8"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -3537,7 +4391,10 @@
       <x v="2"/>
     </i>
     <i>
-      <x/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -3547,63 +4404,95 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="CANTIDAD" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="CANTIDAD AT" fld="8" subtotal="count" baseField="8" baseItem="0"/>
   </dataFields>
-  <formats count="16">
-    <format dxfId="55">
+  <formats count="24">
+    <format dxfId="88">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    <format dxfId="90">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="9" count="0"/>
+          <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="94">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="95">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="96">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="9" count="0"/>
+          <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="99">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="100">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="101">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="102">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="103">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="104">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="106">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="107">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="108">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -3631,8 +4520,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C8FC8C5-DE00-4EEA-8568-415F51E94D80}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="AÑO">
-  <location ref="A14:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A54EFAB-E111-41B6-9C5A-8CCAD5034868}" name="TablaDinámica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="PELIGRO">
+  <location ref="G14:H18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -3642,21 +4531,20 @@
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
+      <items count="4">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="8"/>
+    <field x="9"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -3666,9 +4554,6 @@
     <i>
       <x v="2"/>
     </i>
-    <i>
-      <x v="3"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3677,100 +4562,48 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="CANTIDAD AT" fld="8" subtotal="count" baseField="8" baseItem="0"/>
+    <dataField name="CANTIDAD" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="24">
-    <format dxfId="93">
+  <formats count="12">
+    <format dxfId="76">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="81">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="89">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="84">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="85">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="83">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="82">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="30">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4091,663 +4924,637 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="2" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="3">
         <v>43624</v>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="6" t="str">
         <f>TEXT(F6,"DDDD")</f>
         <v>sábado</v>
       </c>
-      <c r="H6" s="16" t="str">
+      <c r="H6" s="6" t="str">
         <f>TEXT(F6,"MMMM")</f>
         <v>junio</v>
       </c>
-      <c r="I6" s="16">
-        <f>YEAR(F6)</f>
+      <c r="I6" s="6">
+        <f t="shared" ref="I6:I12" si="0">YEAR(F6)</f>
         <v>2019</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="3">
         <v>44176</v>
       </c>
-      <c r="G7" s="16" t="str">
-        <f t="shared" ref="G7:G11" si="0">TEXT(F7,"DDDD")</f>
+      <c r="G7" s="6" t="str">
+        <f t="shared" ref="G7:G12" si="1">TEXT(F7,"DDDD")</f>
         <v>viernes</v>
       </c>
-      <c r="H7" s="16" t="str">
-        <f t="shared" ref="H7:H11" si="1">TEXT(F7,"MMMM")</f>
+      <c r="H7" s="6" t="str">
+        <f t="shared" ref="H7:H12" si="2">TEXT(F7,"MMMM")</f>
         <v>diciembre</v>
       </c>
-      <c r="I7" s="16">
-        <f>YEAR(F7)</f>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="3">
         <v>44462</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>jueves</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>septiembre</v>
+      </c>
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>jueves</v>
-      </c>
-      <c r="H8" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>septiembre</v>
-      </c>
-      <c r="I8" s="16">
-        <f>YEAR(F8)</f>
         <v>2021</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="3">
         <v>44634</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>lunes</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>marzo</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>lunes</v>
-      </c>
-      <c r="H9" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>marzo</v>
-      </c>
-      <c r="I9" s="16">
-        <f>YEAR(F9)</f>
         <v>2022</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="3">
         <v>44706</v>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>miércoles</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>mayo</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>miércoles</v>
-      </c>
-      <c r="H10" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>mayo</v>
-      </c>
-      <c r="I10" s="16">
-        <f>YEAR(F10)</f>
         <v>2022</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="3">
         <v>44749</v>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>jueves</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>julio</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>jueves</v>
-      </c>
-      <c r="H11" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>julio</v>
-      </c>
-      <c r="I11" s="16">
-        <f>YEAR(F11)</f>
         <v>2022</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="A12" s="12">
+        <v>1085337368</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3">
+        <v>45138</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>lunes</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>julio</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="G14" s="42" t="s">
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="46"/>
+      <c r="I14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="50">
         <v>2019</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="49">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="25">
-        <v>4</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="49">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="45">
         <v>2020</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="43">
         <v>1</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="43" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="G16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="43">
+        <v>5</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="43">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="G17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H17" s="43">
         <v>1</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="25">
-        <v>1</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="25">
-        <v>1</v>
-      </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="45">
         <v>2022</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="43">
         <v>3</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="44" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="36">
-        <v>6</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="H18" s="44">
+        <v>7</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="46">
+        <v>2023</v>
+      </c>
+      <c r="B19" s="43">
+        <v>1</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="36">
-        <v>6</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="44">
+        <v>7</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="19"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C14:E19"/>
     <mergeCell ref="I14:J18"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I3"/>
+    <mergeCell ref="C14:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>